--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL339\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="1596" windowWidth="23340" windowHeight="8820" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1830" yWindow="1590" windowWidth="23340" windowHeight="8820" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00135</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +422,19 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -551,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,18 +823,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -850,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -896,18 +918,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -923,24 +945,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -966,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1024,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1060,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1096,7 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1132,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11"/>
@@ -1130,7 +1152,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1161,7 +1183,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1214,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1245,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1276,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -1269,7 +1291,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1296,22 +1318,22 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -1330,30 +1352,30 @@
       <c r="F14" s="15">
         <v>142</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1372,30 +1394,34 @@
       <c r="F16" s="15">
         <v>50153</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="29">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1412,28 +1438,32 @@
       <c r="F18" s="15">
         <v>339</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1590" windowWidth="23340" windowHeight="8820" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1830" yWindow="1590" windowWidth="23340" windowHeight="8820" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000349</t>
   </si>
 </sst>
 </file>
@@ -819,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1437,9 @@
       <c r="D18" s="11">
         <v>1</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="15">
         <v>339</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL339_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1590" windowWidth="23340" windowHeight="8820" tabRatio="377"/>
+    <workbookView xWindow="6360" yWindow="3640" windowWidth="28460" windowHeight="11880" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$412</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -576,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,21 +818,21 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -875,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -889,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="21">
-        <v>42015</v>
+        <v>42016</v>
       </c>
       <c r="F2" s="7">
         <v>0.24930555555555556</v>
       </c>
       <c r="G2" s="21">
-        <v>42153</v>
+        <v>42123</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>31</v>
@@ -921,18 +916,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -954,18 +949,18 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -991,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1022,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1058,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1094,7 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1130,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11"/>
@@ -1155,7 +1150,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="3" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1181,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1217,7 +1212,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1243,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1274,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="3" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -1294,7 +1289,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="3" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1316,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="3" customFormat="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
@@ -1336,7 +1331,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="3" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -1363,7 +1358,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="3" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
@@ -1378,7 +1373,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1404,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="3" customFormat="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="11"/>
@@ -1424,7 +1419,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1446,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="3" customFormat="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -1466,7 +1461,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
     </row>
